--- a/REVER_DailyTracker_20200521.xlsx
+++ b/REVER_DailyTracker_20200521.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BB60AE-A34E-487B-99DB-D5EC169E17CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165744B-FE27-4F27-8DEE-A1DF254F37DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -97,12 +97,6 @@
     <t>APK sent.</t>
   </si>
   <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>Hayaai</t>
   </si>
   <si>
@@ -182,6 +176,21 @@
   </si>
   <si>
     <t>PowerPoint Presentation design and dynamic download</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Account Report</t>
+  </si>
+  <si>
+    <t>Discuss with Elaya, Rahman and Mamatha. This task put on hold. We need to discuss to client on tomorrow</t>
+  </si>
+  <si>
+    <t>Count DRS</t>
+  </si>
+  <si>
+    <t>Total value issue fixed, Need to check Count DRS with data</t>
   </si>
 </sst>
 </file>
@@ -323,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -377,6 +386,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,15 +711,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -731,7 +743,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -822,15 +834,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -943,19 +955,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -981,47 +993,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43950</v>
+        <v>43972</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
+      <c r="G2" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>43951</v>
+        <v>43972</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1082,15 +1094,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1193,15 +1205,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1304,15 +1316,15 @@
       <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1367,10 +1379,10 @@
         <v>43955</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1388,10 +1400,10 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="7">
         <v>0.6</v>
@@ -1459,15 +1471,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1566,19 +1578,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1612,10 +1624,10 @@
         <v>43951</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7">
         <v>0.7</v>
@@ -1624,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1635,10 +1647,10 @@
         <v>43955</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1656,10 +1668,10 @@
         <v>43955</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="7">
         <v>0.4</v>
@@ -1668,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
@@ -1679,10 +1691,10 @@
         <v>43956</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1700,10 +1712,10 @@
         <v>43957</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>0.5</v>
@@ -1712,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
@@ -1723,10 +1735,10 @@
         <v>43958</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="25">
         <v>1</v>
@@ -1735,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
@@ -1746,10 +1758,10 @@
         <v>43959</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="25">
         <v>0.3</v>
@@ -1758,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
@@ -1769,10 +1781,10 @@
         <v>43962</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="25">
         <v>0.3</v>
@@ -1781,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
@@ -1792,10 +1804,10 @@
         <v>43963</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="28">
         <v>1</v>
@@ -1812,10 +1824,10 @@
         <v>43964</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="29">
         <v>0.6</v>
@@ -1824,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
@@ -1835,10 +1847,10 @@
         <v>43965</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="29">
         <v>1</v>
@@ -1847,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
@@ -1858,10 +1870,10 @@
         <v>43966</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="28">
         <v>0.3</v>
@@ -1870,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
@@ -1881,10 +1893,10 @@
         <v>43969</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="29">
         <v>0.3</v>
@@ -1893,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
@@ -1904,10 +1916,10 @@
         <v>43970</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="29">
         <v>0.3</v>
@@ -1916,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
@@ -1927,10 +1939,10 @@
         <v>43971</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="29">
         <v>1</v>
@@ -1939,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
@@ -1950,10 +1962,10 @@
         <v>43972</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="29">
         <v>1</v>
@@ -1966,7 +1978,7 @@
     <row r="19" spans="1:6" s="4" customFormat="1"/>
     <row r="20" spans="1:6" s="4" customFormat="1">
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1986,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2015,15 +2027,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2126,15 +2138,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200521.xlsx
+++ b/REVER_DailyTracker_20200521.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165744B-FE27-4F27-8DEE-A1DF254F37DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -25,8 +19,8 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -191,12 +185,21 @@
   </si>
   <si>
     <t>Total value issue fixed, Need to check Count DRS with data</t>
+  </si>
+  <si>
+    <t>[Back End] Dashboard</t>
+  </si>
+  <si>
+    <t>Server Issue on Deployment server</t>
+  </si>
+  <si>
+    <t>wip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -393,7 +396,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -503,7 +506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -697,18 +700,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1087,11 +1090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1128,22 +1131,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43972</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43972</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1198,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1309,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1464,7 +1491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1575,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2020,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2131,7 +2158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/REVER_DailyTracker_20200521.xlsx
+++ b/REVER_DailyTracker_20200521.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF12ED4-9DDC-4B3C-A326-4B2E98654F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE1ACBF-9D11-4E0E-8579-D9BD0233A34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>Leave on 22-05-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai APP Service Request ,APIs DR new,singleProduct </t>
+  </si>
+  <si>
+    <t>Errors rectified</t>
+  </si>
+  <si>
+    <t>Push Notification implementation</t>
+  </si>
+  <si>
+    <t>Changing the code</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -289,6 +301,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +619,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -1175,8 +1188,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,19 +1230,33 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
